--- a/次期システム対応/対象項目.xlsx
+++ b/次期システム対応/対象項目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="①" sheetId="1" r:id="rId1"/>
@@ -550,11 +550,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm:ss\."/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -572,9 +572,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,51 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,17 +693,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,43 +703,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +741,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,37 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,55 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,25 +849,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,11 +935,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,21 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -981,6 +981,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,15 +1008,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1016,22 +1016,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1040,121 +1040,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,11 +1486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:AY58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,6 +1502,7 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="57.25" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="21" max="51" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:51">
@@ -5849,7 +5852,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="8" scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5859,7 +5863,7 @@
   <sheetPr/>
   <dimension ref="A2:AY157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
@@ -14018,11 +14022,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:AY99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14030,10 +14036,12 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="68.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="48" max="48" width="10.375"/>
-    <col min="49" max="49" width="11.5"/>
+    <col min="21" max="47" width="9" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="10.375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5" hidden="1" customWidth="1"/>
+    <col min="50" max="51" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:51">
@@ -20936,7 +20944,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="8" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -20947,7 +20956,7 @@
   <dimension ref="A2:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/次期システム対応/対象項目.xlsx
+++ b/次期システム対応/対象項目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12945" activeTab="2"/>
+    <workbookView windowWidth="18600" windowHeight="7845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="①" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="⑥" sheetId="4" r:id="rId3"/>
     <sheet name="⑪" sheetId="3" r:id="rId4"/>
     <sheet name="⑫" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>Ｆ式</t>
   </si>
@@ -544,16 +545,31 @@
   <si>
     <t>Na</t>
   </si>
+  <si>
+    <t>UTKYMD</t>
+  </si>
+  <si>
+    <t>IRINO</t>
+  </si>
+  <si>
+    <t>RAWDATA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>L/H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="mm:ss\."/>
   </numFmts>
   <fonts count="20">
@@ -564,16 +580,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +597,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -602,21 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -624,9 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,6 +628,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +650,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +658,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,6 +666,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,22 +694,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +718,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +739,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,55 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,13 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +865,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,31 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,15 +924,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -931,6 +938,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,58 +1019,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,7 +1032,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,136 +1041,136 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14027,8 +14043,8 @@
   </sheetPr>
   <dimension ref="A2:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21320,4 +21336,319 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B2">
+        <v>272454800</v>
+      </c>
+      <c r="C2">
+        <v>453</v>
+      </c>
+      <c r="D2">
+        <v>220</v>
+      </c>
+      <c r="E2">
+        <v>220</v>
+      </c>
+      <c r="F2">
+        <v>220</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(E2-(E4+(E3*0.2)),0)</f>
+        <v>141</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(H2/E4,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B3">
+        <v>272454800</v>
+      </c>
+      <c r="C3">
+        <v>454</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B4">
+        <v>272454800</v>
+      </c>
+      <c r="C4">
+        <v>460</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B5">
+        <v>272454800</v>
+      </c>
+      <c r="C5">
+        <v>11593</v>
+      </c>
+      <c r="D5">
+        <v>2.346667</v>
+      </c>
+      <c r="E5">
+        <v>2.4</v>
+      </c>
+      <c r="F5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B6">
+        <v>272455000</v>
+      </c>
+      <c r="C6">
+        <v>453</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <f>ROUND(E6-(E8+(E7*0.2)),0)</f>
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(H6/E8,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B7">
+        <v>272455000</v>
+      </c>
+      <c r="C7">
+        <v>454</v>
+      </c>
+      <c r="D7">
+        <v>378</v>
+      </c>
+      <c r="E7">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B8">
+        <v>272455000</v>
+      </c>
+      <c r="C8">
+        <v>460</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B9">
+        <v>272455000</v>
+      </c>
+      <c r="C9">
+        <v>11593</v>
+      </c>
+      <c r="D9">
+        <v>2.658824</v>
+      </c>
+      <c r="E9">
+        <v>2.6</v>
+      </c>
+      <c r="F9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B10">
+        <v>272456500</v>
+      </c>
+      <c r="C10">
+        <v>453</v>
+      </c>
+      <c r="D10">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>179</v>
+      </c>
+      <c r="F10">
+        <v>179</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(E10-(E12+(E11*0.2)),0)</f>
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <f>ROUND(H10/E12,1)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B11">
+        <v>272456500</v>
+      </c>
+      <c r="C11">
+        <v>454</v>
+      </c>
+      <c r="D11">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <v>319</v>
+      </c>
+      <c r="F11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B12">
+        <v>272456500</v>
+      </c>
+      <c r="C12">
+        <v>460</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B13">
+        <v>272456500</v>
+      </c>
+      <c r="C13">
+        <v>11593</v>
+      </c>
+      <c r="D13">
+        <v>1.953846</v>
+      </c>
+      <c r="E13">
+        <v>1.9</v>
+      </c>
+      <c r="F13">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>